--- a/05_ejemplos/distritos-ejemplo.xlsx
+++ b/05_ejemplos/distritos-ejemplo.xlsx
@@ -359,8 +359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
